--- a/data/mtcars.xlsx
+++ b/data/mtcars.xlsx
@@ -1,30 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/Documents/Training/Predictive Analtyics with Orange/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfred/Documents/Training/Python Data Analysis Training/exercises/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4522EEA1-D969-D145-A3AD-ABC90BCDB549}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25440" windowHeight="19220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16000" windowHeight="11000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="mtcars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>car_names</t>
   </si>
@@ -166,18 +159,12 @@
   </si>
   <si>
     <t>Volvo 142E</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -218,9 +205,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -488,12 +472,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -537,27 +519,45 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2" t="s">
-        <v>44</v>
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>160</v>
+      </c>
+      <c r="E2">
+        <v>110</v>
+      </c>
+      <c r="F2">
+        <v>3.9</v>
+      </c>
+      <c r="G2">
+        <v>2.62</v>
+      </c>
+      <c r="H2">
+        <v>16.46</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -575,10 +575,10 @@
         <v>3.9</v>
       </c>
       <c r="G3">
-        <v>2.62</v>
+        <v>2.875</v>
       </c>
       <c r="H3">
-        <v>16.46</v>
+        <v>17.02</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -595,31 +595,31 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>21</v>
+        <v>22.8</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="E4">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F4">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G4">
-        <v>2.875</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="H4">
-        <v>17.02</v>
+        <v>18.61</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -628,42 +628,42 @@
         <v>4</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5">
-        <v>22.8</v>
+        <v>21.4</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5">
-        <v>108</v>
+        <v>258</v>
       </c>
       <c r="E5">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F5">
-        <v>3.85</v>
+        <v>3.08</v>
       </c>
       <c r="G5">
-        <v>2.3199999999999998</v>
+        <v>3.2149999999999999</v>
       </c>
       <c r="H5">
-        <v>18.61</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -671,31 +671,31 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
-        <v>21.4</v>
+        <v>18.7</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6">
-        <v>258</v>
+        <v>360</v>
       </c>
       <c r="E6">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="F6">
-        <v>3.08</v>
+        <v>3.15</v>
       </c>
       <c r="G6">
-        <v>3.2149999999999999</v>
+        <v>3.44</v>
       </c>
       <c r="H6">
-        <v>19.440000000000001</v>
+        <v>17.02</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -704,36 +704,36 @@
         <v>3</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
-        <v>18.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>360</v>
+        <v>225</v>
       </c>
       <c r="E7">
-        <v>175</v>
+        <v>105</v>
       </c>
       <c r="F7">
-        <v>3.15</v>
+        <v>2.76</v>
       </c>
       <c r="G7">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
       <c r="H7">
-        <v>17.02</v>
+        <v>20.22</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -742,36 +742,36 @@
         <v>3</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8">
-        <v>18.100000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>225</v>
+        <v>360</v>
       </c>
       <c r="E8">
-        <v>105</v>
+        <v>245</v>
       </c>
       <c r="F8">
-        <v>2.76</v>
+        <v>3.21</v>
       </c>
       <c r="G8">
-        <v>3.46</v>
+        <v>3.57</v>
       </c>
       <c r="H8">
-        <v>20.22</v>
+        <v>15.84</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -780,71 +780,71 @@
         <v>3</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9">
-        <v>14.3</v>
+        <v>24.4</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>360</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="E9">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="F9">
-        <v>3.21</v>
+        <v>3.69</v>
       </c>
       <c r="G9">
-        <v>3.57</v>
+        <v>3.19</v>
       </c>
       <c r="H9">
-        <v>15.84</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
-        <v>24.4</v>
+        <v>22.8</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>146.69999999999999</v>
+        <v>140.80000000000001</v>
       </c>
       <c r="E10">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="F10">
-        <v>3.69</v>
+        <v>3.92</v>
       </c>
       <c r="G10">
-        <v>3.19</v>
+        <v>3.15</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>22.9</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -861,28 +861,28 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>22.8</v>
+        <v>19.2</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>140.80000000000001</v>
+        <v>167.6</v>
       </c>
       <c r="E11">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="F11">
         <v>3.92</v>
       </c>
       <c r="G11">
-        <v>3.15</v>
+        <v>3.44</v>
       </c>
       <c r="H11">
-        <v>22.9</v>
+        <v>18.3</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -894,15 +894,15 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>19.2</v>
+        <v>17.8</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -920,7 +920,7 @@
         <v>3.44</v>
       </c>
       <c r="H12">
-        <v>18.3</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -937,48 +937,48 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13">
-        <v>17.8</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <v>167.6</v>
+        <v>275.8</v>
       </c>
       <c r="E13">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="F13">
-        <v>3.92</v>
+        <v>3.07</v>
       </c>
       <c r="G13">
-        <v>3.44</v>
+        <v>4.07</v>
       </c>
       <c r="H13">
-        <v>18.899999999999999</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>16.399999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -993,10 +993,10 @@
         <v>3.07</v>
       </c>
       <c r="G14">
-        <v>4.07</v>
+        <v>3.73</v>
       </c>
       <c r="H14">
-        <v>17.399999999999999</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1013,10 +1013,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
-        <v>17.3</v>
+        <v>15.2</v>
       </c>
       <c r="C15">
         <v>8</v>
@@ -1031,10 +1031,10 @@
         <v>3.07</v>
       </c>
       <c r="G15">
-        <v>3.73</v>
+        <v>3.78</v>
       </c>
       <c r="H15">
-        <v>17.600000000000001</v>
+        <v>18</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1051,28 +1051,28 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>15.2</v>
+        <v>10.4</v>
       </c>
       <c r="C16">
         <v>8</v>
       </c>
       <c r="D16">
-        <v>275.8</v>
+        <v>472</v>
       </c>
       <c r="E16">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="F16">
-        <v>3.07</v>
+        <v>2.93</v>
       </c>
       <c r="G16">
-        <v>3.78</v>
+        <v>5.25</v>
       </c>
       <c r="H16">
-        <v>18</v>
+        <v>17.98</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1084,12 +1084,12 @@
         <v>3</v>
       </c>
       <c r="L16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>10.4</v>
@@ -1098,19 +1098,19 @@
         <v>8</v>
       </c>
       <c r="D17">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="E17">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F17">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>5.25</v>
+        <v>5.4240000000000004</v>
       </c>
       <c r="H17">
-        <v>17.98</v>
+        <v>17.82</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1127,28 +1127,28 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18">
-        <v>10.4</v>
+        <v>14.7</v>
       </c>
       <c r="C18">
         <v>8</v>
       </c>
       <c r="D18">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="E18">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>3.23</v>
       </c>
       <c r="G18">
-        <v>5.4240000000000004</v>
+        <v>5.3449999999999998</v>
       </c>
       <c r="H18">
-        <v>17.82</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1165,66 +1165,66 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19">
-        <v>14.7</v>
+        <v>32.4</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19">
-        <v>440</v>
+        <v>78.7</v>
       </c>
       <c r="E19">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="F19">
-        <v>3.23</v>
+        <v>4.08</v>
       </c>
       <c r="G19">
-        <v>5.3449999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H19">
-        <v>17.420000000000002</v>
+        <v>19.47</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20">
-        <v>32.4</v>
+        <v>30.4</v>
       </c>
       <c r="C20">
         <v>4</v>
       </c>
       <c r="D20">
-        <v>78.7</v>
+        <v>75.7</v>
       </c>
       <c r="E20">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F20">
-        <v>4.08</v>
+        <v>4.93</v>
       </c>
       <c r="G20">
-        <v>2.2000000000000002</v>
+        <v>1.615</v>
       </c>
       <c r="H20">
-        <v>19.47</v>
+        <v>18.52</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1236,33 +1236,33 @@
         <v>4</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21">
-        <v>30.4</v>
+        <v>33.9</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21">
-        <v>75.7</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="E21">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F21">
-        <v>4.93</v>
+        <v>4.22</v>
       </c>
       <c r="G21">
-        <v>1.615</v>
+        <v>1.835</v>
       </c>
       <c r="H21">
-        <v>18.52</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1274,42 +1274,42 @@
         <v>4</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22">
-        <v>33.9</v>
+        <v>21.5</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22">
-        <v>71.099999999999994</v>
+        <v>120.1</v>
       </c>
       <c r="E22">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="F22">
-        <v>4.22</v>
+        <v>3.7</v>
       </c>
       <c r="G22">
-        <v>1.835</v>
+        <v>2.4649999999999999</v>
       </c>
       <c r="H22">
-        <v>19.899999999999999</v>
+        <v>20.010000000000002</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -1317,31 +1317,31 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23">
-        <v>21.5</v>
+        <v>15.5</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>120.1</v>
+        <v>318</v>
       </c>
       <c r="E23">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="F23">
-        <v>3.7</v>
+        <v>2.76</v>
       </c>
       <c r="G23">
-        <v>2.4649999999999999</v>
+        <v>3.52</v>
       </c>
       <c r="H23">
-        <v>20.010000000000002</v>
+        <v>16.87</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1350,33 +1350,33 @@
         <v>3</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="C24">
         <v>8</v>
       </c>
       <c r="D24">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="E24">
         <v>150</v>
       </c>
       <c r="F24">
-        <v>2.76</v>
+        <v>3.15</v>
       </c>
       <c r="G24">
-        <v>3.52</v>
+        <v>3.4350000000000001</v>
       </c>
       <c r="H24">
-        <v>16.87</v>
+        <v>17.3</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1393,28 +1393,28 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25">
-        <v>15.2</v>
+        <v>13.3</v>
       </c>
       <c r="C25">
         <v>8</v>
       </c>
       <c r="D25">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="E25">
-        <v>150</v>
+        <v>245</v>
       </c>
       <c r="F25">
-        <v>3.15</v>
+        <v>3.73</v>
       </c>
       <c r="G25">
-        <v>3.4350000000000001</v>
+        <v>3.84</v>
       </c>
       <c r="H25">
-        <v>17.3</v>
+        <v>15.41</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1426,33 +1426,33 @@
         <v>3</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26">
-        <v>13.3</v>
+        <v>19.2</v>
       </c>
       <c r="C26">
         <v>8</v>
       </c>
       <c r="D26">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E26">
-        <v>245</v>
+        <v>175</v>
       </c>
       <c r="F26">
-        <v>3.73</v>
+        <v>3.08</v>
       </c>
       <c r="G26">
-        <v>3.84</v>
+        <v>3.8450000000000002</v>
       </c>
       <c r="H26">
-        <v>15.41</v>
+        <v>17.05</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -1464,112 +1464,112 @@
         <v>3</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27">
-        <v>19.2</v>
+        <v>27.3</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D27">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="E27">
-        <v>175</v>
+        <v>66</v>
       </c>
       <c r="F27">
-        <v>3.08</v>
+        <v>4.08</v>
       </c>
       <c r="G27">
-        <v>3.8450000000000002</v>
+        <v>1.9350000000000001</v>
       </c>
       <c r="H27">
-        <v>17.05</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28">
-        <v>27.3</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28">
-        <v>79</v>
+        <v>120.3</v>
       </c>
       <c r="E28">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="F28">
-        <v>4.08</v>
+        <v>4.43</v>
       </c>
       <c r="G28">
-        <v>1.9350000000000001</v>
+        <v>2.14</v>
       </c>
       <c r="H28">
-        <v>18.899999999999999</v>
+        <v>16.7</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29">
-        <v>26</v>
+        <v>30.4</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29">
-        <v>120.3</v>
+        <v>95.1</v>
       </c>
       <c r="E29">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="F29">
-        <v>4.43</v>
+        <v>3.77</v>
       </c>
       <c r="G29">
-        <v>2.14</v>
+        <v>1.5129999999999999</v>
       </c>
       <c r="H29">
-        <v>16.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1583,31 +1583,31 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30">
-        <v>30.4</v>
+        <v>15.8</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>95.1</v>
+        <v>351</v>
       </c>
       <c r="E30">
-        <v>113</v>
+        <v>264</v>
       </c>
       <c r="F30">
-        <v>3.77</v>
+        <v>4.22</v>
       </c>
       <c r="G30">
-        <v>1.5129999999999999</v>
+        <v>3.17</v>
       </c>
       <c r="H30">
-        <v>16.899999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1616,33 +1616,33 @@
         <v>5</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>15.8</v>
+        <v>19.7</v>
       </c>
       <c r="C31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>351</v>
+        <v>145</v>
       </c>
       <c r="E31">
-        <v>264</v>
+        <v>175</v>
       </c>
       <c r="F31">
-        <v>4.22</v>
+        <v>3.62</v>
       </c>
       <c r="G31">
-        <v>3.17</v>
+        <v>2.77</v>
       </c>
       <c r="H31">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -1654,33 +1654,33 @@
         <v>5</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32">
-        <v>19.7</v>
+        <v>15</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D32">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="E32">
-        <v>175</v>
+        <v>335</v>
       </c>
       <c r="F32">
-        <v>3.62</v>
+        <v>3.54</v>
       </c>
       <c r="G32">
-        <v>2.77</v>
+        <v>3.57</v>
       </c>
       <c r="H32">
-        <v>15.5</v>
+        <v>14.6</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -1692,82 +1692,44 @@
         <v>5</v>
       </c>
       <c r="L32">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>15</v>
+        <v>21.4</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="E33">
-        <v>335</v>
+        <v>109</v>
       </c>
       <c r="F33">
-        <v>3.54</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="G33">
-        <v>3.57</v>
+        <v>2.78</v>
       </c>
       <c r="H33">
-        <v>14.6</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34">
-        <v>21.4</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>121</v>
-      </c>
-      <c r="E34">
-        <v>109</v>
-      </c>
-      <c r="F34">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="G34">
-        <v>2.78</v>
-      </c>
-      <c r="H34">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="I34">
-        <v>1</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34">
-        <v>4</v>
-      </c>
-      <c r="L34">
         <v>2</v>
       </c>
     </row>
